--- a/肖森的日常学习/肖森的学习记录.xlsx
+++ b/肖森的日常学习/肖森的学习记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12851" windowHeight="5267" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>日期时间</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>用IDEA建立了一个maven的聚合工程，jar项目的，maven-quickstart ，web：maven site-webapp，聚合项目maven-site</t>
+  </si>
+  <si>
+    <t>5.2 15：00~16：20</t>
+  </si>
+  <si>
+    <t>深入对泛型的了解</t>
   </si>
 </sst>
 </file>
@@ -97,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -119,24 +125,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,45 +162,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +183,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,32 +205,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,11 +237,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -271,19 +277,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,163 +433,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,36 +468,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,7 +490,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,11 +530,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,8 +563,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,10 +1096,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1198,6 +1204,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/肖森的日常学习/肖森的学习记录.xlsx
+++ b/肖森的日常学习/肖森的学习记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>日期时间</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>深入对泛型的了解</t>
+  </si>
+  <si>
+    <t>5.2 17：30~20：30</t>
+  </si>
+  <si>
+    <t>学习JDBC</t>
   </si>
 </sst>
 </file>
@@ -103,9 +109,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -124,8 +130,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +146,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -155,14 +177,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,38 +213,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +243,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -277,187 +283,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,6 +474,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,15 +536,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,36 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -576,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,16 +597,16 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,112 +615,112 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1096,10 +1102,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1212,6 +1218,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/肖森的日常学习/肖森的学习记录.xlsx
+++ b/肖森的日常学习/肖森的学习记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>日期时间</t>
   </si>
@@ -86,22 +86,64 @@
     <t>学习Spring_bean ,学习使用IDEA</t>
   </si>
   <si>
+    <t>4.27 10：00--12：00</t>
+  </si>
+  <si>
     <t>了解的老师的sun工程</t>
   </si>
   <si>
+    <t>4.27 15：00--17：00</t>
+  </si>
+  <si>
     <t>用IDEA建立了一个maven的聚合工程，jar项目的，maven-quickstart ，web：maven site-webapp，聚合项目maven-site</t>
   </si>
   <si>
-    <t>5.2 15：00~16：20</t>
+    <t>4.28 15：00--17：00</t>
+  </si>
+  <si>
+    <t>JavaBean、bean? 什么是POJO、PO、DTO、VO、BO ? 什么是EJB、EntityBean？</t>
+  </si>
+  <si>
+    <t>4.28 18：00--20：00</t>
+  </si>
+  <si>
+    <t>pom文件dependencyManagement 、dependencies与dependcy</t>
+  </si>
+  <si>
+    <t>4.30 15：00--17：00</t>
+  </si>
+  <si>
+    <t>迭代器Iterater, 泛型，以及集合，还有 JDBC的复习</t>
+  </si>
+  <si>
+    <t>4.30 18：00--20：00</t>
+  </si>
+  <si>
+    <t>对maven工程的pom  了解java序列化  、接口Serializable的使用</t>
+  </si>
+  <si>
+    <t>5.2 15：00--16：20</t>
   </si>
   <si>
     <t>深入对泛型的了解</t>
   </si>
   <si>
-    <t>5.2 17：30~20：30</t>
+    <t>5.2 17：30--20：30</t>
   </si>
   <si>
     <t>学习JDBC</t>
+  </si>
+  <si>
+    <t>5.3 15：00--16：20</t>
+  </si>
+  <si>
+    <t>学习JDBC ,了解事务地概念与特点，创建model模型，静态代码块</t>
+  </si>
+  <si>
+    <t>5.8 18：00--20：20</t>
+  </si>
+  <si>
+    <t>完善自己的项目。</t>
   </si>
 </sst>
 </file>
@@ -130,8 +172,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -139,7 +242,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,127 +315,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -283,55 +325,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,18 +469,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -367,49 +481,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,49 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +516,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,6 +564,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -515,65 +616,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -582,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +636,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,10 +1144,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1195,35 +1237,83 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>4.27</v>
+      <c r="A11" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>4.27</v>
+      <c r="A12" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
